--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\NonSense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB86AE7F-8B20-4F0E-9D32-3F267A4D9492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F49E5B-54E2-4DE6-90E3-4E8FCCF21304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="10100" xr2:uid="{6C321128-DD47-40A1-BF59-DCC6999E442E}"/>
+    <workbookView xWindow="-23148" yWindow="1284" windowWidth="23256" windowHeight="14016" xr2:uid="{6C321128-DD47-40A1-BF59-DCC6999E442E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Methods</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,16 @@
   </si>
   <si>
     <t>Electricity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>train-valid(Linear)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D3DEA8-30C7-40B8-A003-4D9CD7E77D31}">
-  <dimension ref="B4:O29"/>
+  <dimension ref="B4:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -493,27 +503,31 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -524,11 +538,11 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>2</v>
@@ -548,14 +562,20 @@
       <c r="M5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="T5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -568,26 +588,32 @@
       <c r="E6" s="2">
         <v>0.45400000000000001</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="H6" s="2">
         <v>0.37</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>0.4</v>
       </c>
+      <c r="J6">
+        <v>0.376</v>
+      </c>
+      <c r="K6">
+        <v>0.41499999999999998</v>
+      </c>
       <c r="L6">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="M6">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="N6">
-        <v>0.375</v>
-      </c>
-      <c r="O6">
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="1">
         <v>192</v>
@@ -599,25 +625,31 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="F7">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="H7">
         <v>0.41299999999999998</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.42899999999999999</v>
       </c>
+      <c r="J7">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.44600000000000001</v>
+      </c>
       <c r="L7">
-        <v>0.42299999999999999</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="M7">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="N7">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="O7">
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="1">
         <v>336</v>
@@ -629,25 +661,31 @@
         <v>0.52600000000000002</v>
       </c>
       <c r="F8">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H8">
         <v>0.42199999999999999</v>
       </c>
-      <c r="G8" s="2">
+      <c r="I8" s="2">
         <v>0.44</v>
       </c>
+      <c r="J8">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.46200000000000002</v>
+      </c>
       <c r="L8">
-        <v>0.44400000000000001</v>
+        <v>0.439</v>
       </c>
       <c r="M8">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="N8">
-        <v>0.439</v>
-      </c>
-      <c r="O8">
         <v>0.443</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="1">
         <v>720</v>
@@ -659,25 +697,31 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="F9">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="H9">
         <v>0.44700000000000001</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.46800000000000003</v>
       </c>
+      <c r="J9">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="K9">
+        <v>0.49199999999999999</v>
+      </c>
       <c r="L9">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="M9">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="N9">
         <v>0.47199999999999998</v>
       </c>
-      <c r="O9" s="2">
+      <c r="M9" s="2">
         <v>0.49</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -691,25 +735,31 @@
         <v>0.3</v>
       </c>
       <c r="F10">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="H10">
         <v>0.27400000000000002</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.377</v>
       </c>
+      <c r="J10">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="K10">
+        <v>0.374</v>
+      </c>
       <c r="L10">
-        <v>0.33200000000000002</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="M10">
-        <v>0.374</v>
-      </c>
-      <c r="N10">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="O10">
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="1">
         <v>192</v>
@@ -721,25 +771,31 @@
         <v>0.33029999999999998</v>
       </c>
       <c r="F11">
+        <v>0.309</v>
+      </c>
+      <c r="G11">
+        <v>0.377</v>
+      </c>
+      <c r="H11">
         <v>0.34100000000000003</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.38200000000000001</v>
       </c>
+      <c r="J11">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K11">
+        <v>0.44600000000000001</v>
+      </c>
       <c r="L11">
-        <v>0.40699999999999997</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="M11">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="N11">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="O11">
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="1">
         <v>336</v>
@@ -751,25 +807,31 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="F12">
+        <v>0.371</v>
+      </c>
+      <c r="G12">
+        <v>0.42</v>
+      </c>
+      <c r="H12">
         <v>0.32900000000000001</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0.38400000000000001</v>
       </c>
-      <c r="L12" s="2">
+      <c r="J12" s="2">
         <v>0.4</v>
       </c>
+      <c r="K12">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.44800000000000001</v>
+      </c>
       <c r="M12">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="N12">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="O12">
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="1">
         <v>720</v>
@@ -781,25 +843,31 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="F13">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G13">
+        <v>0.496</v>
+      </c>
+      <c r="H13">
         <v>0.379</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>0.42199999999999999</v>
       </c>
+      <c r="J13">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="K13">
+        <v>0.46899999999999997</v>
+      </c>
       <c r="L13">
-        <v>0.41199999999999998</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="M13">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="N13">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="O13">
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -813,25 +881,31 @@
         <v>0.41699999999999998</v>
       </c>
       <c r="F14">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="G14">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="H14">
         <v>0.29299999999999998</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>0.34599999999999997</v>
       </c>
+      <c r="J14">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.39</v>
+      </c>
       <c r="L14">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="N14">
         <v>0.29899999999999999</v>
       </c>
-      <c r="O14">
+      <c r="M14">
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="1">
         <v>192</v>
@@ -842,26 +916,32 @@
       <c r="E15" s="2">
         <v>0.44500000000000001</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="H15">
         <v>0.33300000000000002</v>
       </c>
-      <c r="G15" s="2">
+      <c r="I15" s="2">
         <v>0.37</v>
       </c>
+      <c r="J15">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="K15">
+        <v>0.41499999999999998</v>
+      </c>
       <c r="L15">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="M15">
         <v>0.36499999999999999</v>
       </c>
-      <c r="M15">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="N15">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="O15">
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="1">
         <v>336</v>
@@ -872,26 +952,32 @@
       <c r="E16" s="2">
         <v>0.47499999999999998</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
+        <v>0.377</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="H16">
         <v>0.36899999999999999</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.39200000000000002</v>
       </c>
+      <c r="J16">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="K16">
+        <v>0.42499999999999999</v>
+      </c>
       <c r="L16">
-        <v>0.39200000000000002</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="M16">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="N16">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="O16">
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="1">
         <v>720</v>
@@ -902,26 +988,32 @@
       <c r="E17" s="2">
         <v>0.51800000000000002</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
+        <v>0.434</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="H17">
         <v>0.41599999999999998</v>
       </c>
-      <c r="G17" s="2">
+      <c r="I17" s="2">
         <v>0.42</v>
       </c>
+      <c r="J17">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.45800000000000002</v>
+      </c>
       <c r="L17">
-        <v>0.44600000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="M17">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="N17">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="O17">
         <v>0.42099999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -934,26 +1026,32 @@
       <c r="E18" s="2">
         <v>0.24</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.252</v>
+      </c>
+      <c r="H18">
         <v>0.16600000000000001</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="L18" s="2">
+      <c r="J18" s="2">
         <v>0.18</v>
       </c>
-      <c r="M18">
+      <c r="K18">
         <v>0.27100000000000002</v>
       </c>
-      <c r="N18">
+      <c r="L18">
         <v>0.16700000000000001</v>
       </c>
-      <c r="O18" s="2">
+      <c r="M18" s="2">
         <v>0.26</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="1">
         <v>192</v>
@@ -964,26 +1062,32 @@
       <c r="E19" s="2">
         <v>0.26800000000000002</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="H19">
         <v>0.223</v>
       </c>
-      <c r="G19" s="2">
+      <c r="I19" s="2">
         <v>0.29599999999999999</v>
       </c>
+      <c r="J19">
+        <v>0.252</v>
+      </c>
+      <c r="K19">
+        <v>0.318</v>
+      </c>
       <c r="L19">
-        <v>0.252</v>
+        <v>0.224</v>
       </c>
       <c r="M19">
-        <v>0.318</v>
-      </c>
-      <c r="N19">
-        <v>0.224</v>
-      </c>
-      <c r="O19">
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="1">
         <v>336</v>
@@ -994,26 +1098,32 @@
       <c r="E20" s="2">
         <v>0.29399999999999998</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
+        <v>0.251</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H20">
         <v>0.27400000000000002</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>0.32900000000000001</v>
       </c>
+      <c r="J20">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="K20">
+        <v>0.36399999999999999</v>
+      </c>
       <c r="L20">
-        <v>0.32400000000000001</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="M20">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="N20">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="O20">
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="1">
         <v>720</v>
@@ -1024,285 +1134,317 @@
       <c r="E21" s="2">
         <v>0.34100000000000003</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="H21">
         <v>0.36199999999999999</v>
       </c>
-      <c r="G21" s="2">
+      <c r="I21" s="2">
         <v>0.38500000000000001</v>
       </c>
-      <c r="L21" s="2">
+      <c r="J21" s="2">
         <v>0.41</v>
       </c>
-      <c r="M21" s="2">
+      <c r="K21" s="2">
         <v>0.42</v>
       </c>
-      <c r="N21">
+      <c r="L21">
         <v>0.39700000000000002</v>
       </c>
-      <c r="O21">
+      <c r="M21">
         <v>0.42099999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>96</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>0.48599999999999999</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>0.49099999999999999</v>
       </c>
-      <c r="F22">
+      <c r="H23">
         <v>0.14899999999999999</v>
       </c>
-      <c r="G22">
+      <c r="I23">
         <v>0.19800000000000001</v>
       </c>
-      <c r="L22">
+      <c r="N23">
         <v>0.23799999999999999</v>
       </c>
-      <c r="M22">
+      <c r="O23">
         <v>0.314</v>
       </c>
-      <c r="N22">
+      <c r="P23">
         <v>0.17599999999999999</v>
       </c>
-      <c r="O22">
+      <c r="Q23">
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1">
-        <v>192</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="F23">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="L23">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M23">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="O23">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="1">
-        <v>336</v>
+        <v>192</v>
       </c>
       <c r="D24" s="2">
-        <v>0.56100000000000005</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="E24" s="2">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="F24">
-        <v>0.245</v>
-      </c>
-      <c r="G24">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="O24">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="Q24">
         <v>0.28199999999999997</v>
       </c>
-      <c r="L24">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="M24">
-        <v>0.377</v>
-      </c>
-      <c r="N24">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="O24">
-        <v>0.31900000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="1">
+        <v>336</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25">
+        <v>0.245</v>
+      </c>
+      <c r="I25">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="N25">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="O25">
+        <v>0.377</v>
+      </c>
+      <c r="P25">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="Q25">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1">
         <v>720</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <v>0.61</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>0.58099999999999996</v>
       </c>
-      <c r="F25">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26">
         <v>0.314</v>
       </c>
-      <c r="G25">
+      <c r="I26">
         <v>0.33400000000000002</v>
       </c>
-      <c r="L25">
+      <c r="N26">
         <v>0.38900000000000001</v>
       </c>
-      <c r="M25">
+      <c r="O26">
         <v>0.40899999999999997</v>
       </c>
-      <c r="N25">
+      <c r="P26">
         <v>0.32300000000000001</v>
       </c>
-      <c r="O25">
+      <c r="Q26">
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>96</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
         <v>0.221</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="2">
         <v>0.311</v>
       </c>
-      <c r="F26">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27">
         <v>0.129</v>
       </c>
-      <c r="G26">
+      <c r="I27">
         <v>0.222</v>
       </c>
-      <c r="L26">
+      <c r="N27">
         <v>0.186</v>
       </c>
-      <c r="M26">
+      <c r="O27">
         <v>0.30199999999999999</v>
       </c>
-      <c r="N26" s="2">
+      <c r="P27" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O26">
+      <c r="Q27">
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1">
-        <v>192</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.316</v>
-      </c>
-      <c r="F27">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="L27">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="M27">
-        <v>0.311</v>
-      </c>
-      <c r="N27">
-        <v>0.153</v>
-      </c>
-      <c r="O27">
-        <v>0.249</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="1">
-        <v>336</v>
+        <v>192</v>
       </c>
       <c r="D28" s="2">
-        <v>0.24099999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="E28" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F28">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="G28">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="L28">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="M28">
-        <v>0.32800000000000001</v>
+        <v>0.316</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.24</v>
       </c>
       <c r="N28">
-        <v>0.16900000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="O28">
-        <v>0.26700000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.311</v>
+      </c>
+      <c r="P28">
+        <v>0.153</v>
+      </c>
+      <c r="Q28">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="1">
+        <v>336</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="N29">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="P29">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="Q29">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1">
         <v>720</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="2">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="2">
         <v>0.35399999999999998</v>
       </c>
-      <c r="F29">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30">
         <v>0.19700000000000001</v>
       </c>
-      <c r="G29" s="2">
+      <c r="I30" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L29">
+      <c r="N30">
         <v>0.23300000000000001</v>
       </c>
-      <c r="M29">
+      <c r="O30">
         <v>0.34399999999999997</v>
       </c>
-      <c r="N29">
+      <c r="P30">
         <v>0.20300000000000001</v>
       </c>
-      <c r="O29">
+      <c r="Q30">
         <v>0.30099999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
+  <mergeCells count="15">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
